--- a/data/trans_dic/P42C_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R-Edad-trans_dic.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,68; 33,11</t>
+          <t>21,24; 32,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,54; 26,81</t>
+          <t>15,58; 26,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,68; 33,11</t>
+          <t>21,24; 32,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,54; 26,81</t>
+          <t>15,58; 26,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,44; 34,13</t>
+          <t>25,54; 34,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,94; 25,1</t>
+          <t>17,78; 25,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,44; 34,13</t>
+          <t>25,54; 34,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,94; 25,1</t>
+          <t>17,78; 25,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,78; 32,83</t>
+          <t>24,77; 32,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,37; 23,98</t>
+          <t>17,21; 23,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,78; 32,83</t>
+          <t>24,77; 32,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,37; 23,98</t>
+          <t>17,21; 23,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,57; 30,63</t>
+          <t>22,23; 31,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,93; 16,88</t>
+          <t>11,38; 17,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,57; 30,63</t>
+          <t>22,23; 31,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,93; 16,88</t>
+          <t>11,38; 17,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,81; 20,9</t>
+          <t>12,73; 20,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,32; 16,15</t>
+          <t>9,23; 16,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,81; 20,9</t>
+          <t>12,73; 20,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,32; 16,15</t>
+          <t>9,23; 16,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,25; 16,68</t>
+          <t>10,59; 16,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,13; 8,66</t>
+          <t>4,14; 8,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,25; 16,68</t>
+          <t>10,59; 16,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,13; 8,66</t>
+          <t>4,14; 8,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,33; 25,76</t>
+          <t>22,25; 25,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,16; 16,77</t>
+          <t>14,27; 16,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1375,12 +1375,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,33; 25,76</t>
+          <t>22,25; 25,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,16; 16,77</t>
+          <t>14,27; 16,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">

--- a/data/trans_dic/P42C_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,24; 32,92</t>
+          <t>21,24; 32,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,58; 26,74</t>
+          <t>15,96; 26,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,57; 54,5</t>
+          <t>26,39; 53,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,24; 32,92</t>
+          <t>21,24; 32,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,58; 26,74</t>
+          <t>15,96; 26,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,57; 54,5</t>
+          <t>26,39; 53,67</t>
         </is>
       </c>
     </row>
@@ -810,32 +810,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,54; 34,07</t>
+          <t>25,69; 34,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,78; 25,41</t>
+          <t>17,56; 25,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,13; 34,31</t>
+          <t>20,83; 34,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,54; 34,07</t>
+          <t>25,69; 34,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,78; 25,41</t>
+          <t>17,56; 25,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,13; 34,31</t>
+          <t>20,83; 34,74</t>
         </is>
       </c>
     </row>
@@ -920,32 +920,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,77; 32,25</t>
+          <t>24,9; 32,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,21; 23,86</t>
+          <t>17,0; 23,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,4; 29,57</t>
+          <t>21,41; 29,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,77; 32,25</t>
+          <t>24,9; 32,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,21; 23,86</t>
+          <t>17,0; 23,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,4; 29,57</t>
+          <t>21,41; 29,73</t>
         </is>
       </c>
     </row>
@@ -1030,32 +1030,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,23; 31,03</t>
+          <t>22,85; 30,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,38; 17,67</t>
+          <t>11,48; 17,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,5; 35,32</t>
+          <t>27,83; 34,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,23; 31,03</t>
+          <t>22,85; 30,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,38; 17,67</t>
+          <t>11,48; 17,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,5; 35,32</t>
+          <t>27,83; 34,93</t>
         </is>
       </c>
     </row>
@@ -1140,32 +1140,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,73; 20,75</t>
+          <t>12,63; 20,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,23; 16,08</t>
+          <t>9,36; 16,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,09; 24,55</t>
+          <t>18,03; 24,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,73; 20,75</t>
+          <t>12,63; 20,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,23; 16,08</t>
+          <t>9,36; 16,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,09; 24,55</t>
+          <t>18,03; 24,64</t>
         </is>
       </c>
     </row>
@@ -1250,32 +1250,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,59; 16,87</t>
+          <t>10,56; 17,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,77</t>
+          <t>4,15; 8,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,91; 16,27</t>
+          <t>12,2; 16,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,59; 16,87</t>
+          <t>10,56; 17,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,77</t>
+          <t>4,15; 8,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,91; 16,27</t>
+          <t>12,2; 16,59</t>
         </is>
       </c>
     </row>
@@ -1360,32 +1360,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,25; 25,68</t>
+          <t>22,29; 25,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,27; 16,88</t>
+          <t>14,19; 16,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,22; 25,6</t>
+          <t>22,06; 25,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,25; 25,68</t>
+          <t>22,29; 25,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,27; 16,88</t>
+          <t>14,19; 16,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,22; 25,6</t>
+          <t>22,06; 25,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P42C_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>39,58%</t>
+          <t>39,36%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>39,58%</t>
+          <t>39,36%</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,39; 53,67</t>
+          <t>25,96; 53,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,14 +725,14 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,39; 53,67</t>
+          <t>25,96; 53,31</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,78%</t>
+          <t>22,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,78%</t>
+          <t>22,41%</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,83; 34,74</t>
+          <t>11,28; 31,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -835,14 +835,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,83; 34,74</t>
+          <t>11,28; 31,69</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,6%</t>
+          <t>25,9%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>25,6%</t>
+          <t>25,9%</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,41; 29,73</t>
+          <t>21,66; 29,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -945,14 +945,14 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,41; 29,73</t>
+          <t>21,66; 29,98</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,48%</t>
+          <t>30,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31,48%</t>
+          <t>30,21%</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,83; 34,93</t>
+          <t>23,74; 33,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1055,14 +1055,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,83; 34,93</t>
+          <t>23,74; 33,78</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>21,21%</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,03; 24,64</t>
+          <t>18,21; 24,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1165,14 +1165,14 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,03; 24,64</t>
+          <t>18,21; 24,84</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1197,32 +1197,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>16,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>16,87%</t>
         </is>
       </c>
     </row>
@@ -1250,39 +1250,39 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,56; 17,23</t>
+          <t>10,58; 20,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,15; 8,83</t>
+          <t>6,16; 13,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,2; 16,59</t>
+          <t>13,99; 20,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,56; 17,23</t>
+          <t>10,58; 20,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,15; 8,83</t>
+          <t>6,16; 13,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,2; 16,59</t>
+          <t>13,99; 20,34</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1307,32 +1307,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>11,7%</t>
         </is>
       </c>
     </row>
@@ -1360,44 +1360,154 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>7,49; 17,59</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0,6; 5,53</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8,93; 14,84</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7,49; 17,59</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,6; 5,53</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>8,93; 14,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>23,93%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>15,47%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>23,2%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>23,93%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>15,47%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>23,2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>22,29; 25,89</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>14,19; 16,98</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>22,06; 25,69</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>20,33; 25,26</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>22,29; 25,89</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>14,19; 16,98</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>22,06; 25,69</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>20,33; 25,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1408,6 +1518,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P42C_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -700,32 +701,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,24; 32,61</t>
+          <t>20,88; 33,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,96; 26,75</t>
+          <t>15,71; 28,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,96; 53,31</t>
+          <t>26,7; 53,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,24; 32,61</t>
+          <t>20,88; 33,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,96; 26,75</t>
+          <t>15,71; 28,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,96; 53,31</t>
+          <t>26,7; 53,32</t>
         </is>
       </c>
     </row>
@@ -810,32 +811,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,69; 34,03</t>
+          <t>25,39; 33,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,56; 25,23</t>
+          <t>17,94; 25,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,28; 31,69</t>
+          <t>10,5; 32,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,69; 34,03</t>
+          <t>25,39; 33,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,56; 25,23</t>
+          <t>17,94; 25,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,28; 31,69</t>
+          <t>10,5; 32,0</t>
         </is>
       </c>
     </row>
@@ -920,32 +921,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,9; 32,47</t>
+          <t>24,96; 32,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,0; 23,76</t>
+          <t>17,07; 24,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,66; 29,98</t>
+          <t>21,98; 30,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,9; 32,47</t>
+          <t>24,96; 32,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,0; 23,76</t>
+          <t>17,07; 24,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,66; 29,98</t>
+          <t>21,98; 30,09</t>
         </is>
       </c>
     </row>
@@ -1030,32 +1031,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,85; 30,84</t>
+          <t>22,87; 30,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,48; 17,48</t>
+          <t>11,63; 17,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,74; 33,78</t>
+          <t>22,86; 34,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,85; 30,84</t>
+          <t>22,87; 30,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,48; 17,48</t>
+          <t>11,63; 17,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,74; 33,78</t>
+          <t>22,86; 34,43</t>
         </is>
       </c>
     </row>
@@ -1140,32 +1141,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,63; 20,97</t>
+          <t>12,37; 20,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,36; 16,18</t>
+          <t>9,0; 16,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,21; 24,84</t>
+          <t>18,14; 24,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,63; 20,97</t>
+          <t>12,37; 20,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,36; 16,18</t>
+          <t>9,0; 16,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,21; 24,84</t>
+          <t>18,14; 24,54</t>
         </is>
       </c>
     </row>
@@ -1250,32 +1251,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,58; 20,36</t>
+          <t>10,86; 20,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,16; 13,82</t>
+          <t>6,29; 13,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,99; 20,34</t>
+          <t>13,84; 19,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,58; 20,36</t>
+          <t>10,86; 20,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,16; 13,82</t>
+          <t>6,29; 13,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,99; 20,34</t>
+          <t>13,84; 19,89</t>
         </is>
       </c>
     </row>
@@ -1360,32 +1361,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,49; 17,59</t>
+          <t>7,69; 17,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,53</t>
+          <t>0,6; 6,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,93; 14,84</t>
+          <t>9,02; 14,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,49; 17,59</t>
+          <t>7,69; 17,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,53</t>
+          <t>0,6; 6,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,93; 14,84</t>
+          <t>9,02; 14,69</t>
         </is>
       </c>
     </row>
@@ -1470,32 +1471,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>22,29; 25,89</t>
+          <t>22,3; 25,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>14,19; 16,98</t>
+          <t>14,25; 17,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,33; 25,26</t>
+          <t>20,44; 25,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>22,29; 25,89</t>
+          <t>22,3; 25,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>14,19; 16,98</t>
+          <t>14,25; 17,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>20,33; 25,26</t>
+          <t>20,44; 25,25</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuya última consulta ginecológica fue en un centro privado</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>62703</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>45199</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>36458</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>62703</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>45199</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>36458</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>48581; 77204</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>33905; 60435</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>24733; 49386</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>48581; 77204</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>33905; 60435</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>24733; 49386</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>145438</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>98683</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>64391</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>145438</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>98683</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>64391</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>124168; 165570</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>83088; 117697</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>30175; 91955</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>124168; 165570</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>83088; 117697</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>30175; 91955</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>176081</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>119213</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>79297</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>176081</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>119213</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>79297</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>154475; 200309</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>99534; 141757</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>67275; 92102</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>154475; 200309</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>99534; 141757</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>67275; 92102</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>143356</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>81492</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>136657</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>143356</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>81492</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>136657</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>122902; 166252</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>66930; 101084</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>103436; 155774</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>122902; 166252</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>66930; 101084</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>103436; 155774</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>64547</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>53981</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>75860</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>64547</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>53981</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>75860</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>48306; 81239</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>38916; 69612</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>64887; 87773</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>48306; 81239</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>38916; 69612</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>64887; 87773</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>38812</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>26331</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>45670</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>38812</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>26331</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>45670</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>27963; 52290</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>17732; 37947</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>37485; 53848</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>27963; 52290</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>17732; 37947</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>37485; 53848</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>24738</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>4633</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>29003</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>24738</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>4633</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>29003</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>16453; 37062</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1340; 13617</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>22347; 36396</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>16453; 37062</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1340; 13617</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>22347; 36396</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>655675</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>429531</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>467337</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>655675</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>429531</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>467337</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>611083; 705108</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>395628; 472258</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>411727; 508802</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>611083; 705108</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>395628; 472258</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>411727; 508802</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>